--- a/bokworks-generate-excel/src/main/resources/static/input/20231004/BOK_Phase1_CorePayment_v_1_2_BOK_camt_007_001_08_ModifyTransaction_20231004_1307.xlsx
+++ b/bokworks-generate-excel/src/main/resources/static/input/20231004/BOK_Phase1_CorePayment_v_1_2_BOK_camt_007_001_08_ModifyTransaction_20231004_1307.xlsx
@@ -58837,4 +58837,7 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml>
 </file>